--- a/算法/简单排序.xlsx
+++ b/算法/简单排序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="10365"/>
+    <workbookView windowWidth="24015" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,42 +35,97 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,7 +147,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,68 +163,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,13 +175,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -192,91 +185,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,91 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +394,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -418,9 +420,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,143 +476,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,37 +619,10 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -787,15 +780,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -812,7 +805,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390525" y="15440025"/>
+          <a:off x="428625" y="15544800"/>
           <a:ext cx="9248775" cy="8315325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -898,6 +891,48 @@
         <a:xfrm>
           <a:off x="171450" y="32070675"/>
           <a:ext cx="9201150" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="8277225"/>
+          <a:ext cx="6334125" cy="5124450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1202,8 +1237,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="AR183" sqref="AR183"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="AV232" sqref="AV232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
